--- a/BITACORA.xlsx
+++ b/BITACORA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4580F14D-9E51-4229-9C70-C6BAF834D363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF5AA9-518A-4DFB-BC92-95EB3DF183BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB689F4F-3024-4C60-A999-50832C9E29C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>BITACORA SISTEMAS</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>INGRESAR AL SERVIDOR 4 CON TEAMVIEWER, PODEMOS ELIMINAR LOS LOGS SI ES QUE EXISTEN PREFERIBLEMENTE DE UN DIA ANTES EN EL QUE SE ENCUENTRA</t>
+  </si>
+  <si>
+    <t>AVANEX</t>
+  </si>
+  <si>
+    <t>AN1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO VAN A PODER INGRESAR AL SISTEMA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINICIAR SERVIDOR DE APLICACIONES GLASSFISH AVANEX </t>
+  </si>
+  <si>
+    <t>LIGHT BLUE</t>
   </si>
 </sst>
 </file>
@@ -183,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +241,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -255,18 +276,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -285,6 +301,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -292,6 +316,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF6699FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -602,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903565A-9A1F-4BE4-B062-F63E710A5C65}">
   <dimension ref="B4:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,848 +690,865 @@
       <c r="D8" s="5"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C9" s="7"/>
-      <c r="D9" s="6"/>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>44214</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="10"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="7"/>
+      <c r="C14" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18" t="s">
+      <c r="G14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
     </row>
     <row r="15" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <v>44214</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="G17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1512,8 +1558,10 @@
     <hyperlink ref="G13" r:id="rId1" display="https://github.com/conejo7/bitacora.git" xr:uid="{E66C1F00-79BD-43C3-8C3E-BBBD82F2DF1F}"/>
     <hyperlink ref="G14" r:id="rId2" display="https://github.com/conejo7/bitacora" xr:uid="{C6478953-FC6B-4492-82D3-FC7AF9C5AF7B}"/>
     <hyperlink ref="G15" r:id="rId3" display="https://github.com/conejo7/bitacora" xr:uid="{35684D8C-5BA0-41BF-A28D-2F8C057848BA}"/>
+    <hyperlink ref="G17" r:id="rId4" display="https://github.com/conejo7/bitacora" xr:uid="{E759EC94-8FC5-42E9-9644-41AB6A7A5185}"/>
+    <hyperlink ref="G19" r:id="rId5" display="https://github.com/conejo7/bitacora" xr:uid="{1EE8F3D9-4A66-4D83-8F7B-E2E112ABBF43}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
 </worksheet>
 </file>
--- a/BITACORA.xlsx
+++ b/BITACORA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bitacora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF5AA9-518A-4DFB-BC92-95EB3DF183BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B0A3B-0FD8-42A9-9012-CFC748B4B34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB689F4F-3024-4C60-A999-50832C9E29C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>BITACORA SISTEMAS</t>
   </si>
@@ -127,9 +127,6 @@
     <t>REINICIO DEL SERVIDOR DE APLICACIONES GLASSFISH</t>
   </si>
   <si>
-    <t>VERIFICAMOS CUANDO SE REALIZO EL ÚLTIMO BACK UP DE LA TABLA Y SI ES DESPUES DE UN MES IR A SOLUCIONES</t>
-  </si>
-  <si>
     <t>INGRESAR AL SERVIDOR 4 CON TEAMVIEWER, PODEMOS ELIMINAR LOS LOGS SI ES QUE EXISTEN PREFERIBLEMENTE DE UN DIA ANTES EN EL QUE SE ENCUENTRA</t>
   </si>
   <si>
@@ -146,6 +143,37 @@
   </si>
   <si>
     <t>LIGHT BLUE</t>
+  </si>
+  <si>
+    <t>LIBERACION/ENTREGA RESULTADOS</t>
+  </si>
+  <si>
+    <t>LE1</t>
+  </si>
+  <si>
+    <t>SE DEMORA AL BUSCAR, ORDEN QUE DA PROBLEMAS</t>
+  </si>
+  <si>
+    <t>VERIFICAR LA ORDEN QUE DA PROBLEMAS, CERRAR EL WILDFLY Y VOLVER ABRIR LA APLICACIÓN</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>SI SE REINICIA EL SERVIDOR 192.168.57.8</t>
+  </si>
+  <si>
+    <t>VERIFICAR QUE ESTE CORRIENDO EL SQL AGENT
+VERIFICAMOS CUANDO SE REALIZO EL ÚLTIMO BACK UP DE LA TABLA Y SI ES DESPUES DE UN MES IR A SOLUCIONES</t>
+  </si>
+  <si>
+    <t>conejo7/bitacora: problemas y soluciones (github.com)</t>
+  </si>
+  <si>
+    <t>EN EL ORDEN ADECUADO SE DEBE REINICIAR LA APLICACIÓN 
+primero base de datos 
+servidor de aplicaciones
+manfe</t>
   </si>
 </sst>
 </file>
@@ -276,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -286,11 +314,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -301,14 +324,25 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -631,16 +665,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903565A-9A1F-4BE4-B062-F63E710A5C65}">
   <dimension ref="B4:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.5546875" customWidth="1"/>
-    <col min="3" max="4" width="19.88671875" customWidth="1"/>
-    <col min="5" max="5" width="59.109375" customWidth="1"/>
-    <col min="6" max="6" width="67.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="6" max="6" width="60.109375" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -691,28 +726,28 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
@@ -741,22 +776,22 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+      <c r="B13" s="22">
         <v>44214</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="7"/>
@@ -768,19 +803,19 @@
     </row>
     <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="15" t="s">
+      <c r="F14" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H14" s="7"/>
@@ -790,9 +825,9 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -801,10 +836,10 @@
       <c r="E15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="15" t="s">
+      <c r="F15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="12" t="s">
         <v>18</v>
       </c>
       <c r="H15" s="7"/>
@@ -832,7 +867,7 @@
       <c r="B17" s="8">
         <v>44214</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -844,7 +879,7 @@
       <c r="F17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="17" t="s">
+      <c r="G17" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H17" s="7"/>
@@ -869,20 +904,22 @@
       <c r="M18" s="7"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="7"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="8">
+        <v>44214</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="17" t="s">
+      <c r="G19" s="13" t="s">
         <v>18</v>
       </c>
       <c r="H19" s="7"/>
@@ -906,13 +943,23 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -934,13 +981,23 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1560,8 +1617,10 @@
     <hyperlink ref="G15" r:id="rId3" display="https://github.com/conejo7/bitacora" xr:uid="{35684D8C-5BA0-41BF-A28D-2F8C057848BA}"/>
     <hyperlink ref="G17" r:id="rId4" display="https://github.com/conejo7/bitacora" xr:uid="{E759EC94-8FC5-42E9-9644-41AB6A7A5185}"/>
     <hyperlink ref="G19" r:id="rId5" display="https://github.com/conejo7/bitacora" xr:uid="{1EE8F3D9-4A66-4D83-8F7B-E2E112ABBF43}"/>
+    <hyperlink ref="G21" r:id="rId6" display="https://github.com/conejo7/bitacora" xr:uid="{07747805-E213-4CCE-805C-9C972BE47D88}"/>
+    <hyperlink ref="G23" r:id="rId7" display="https://github.com/conejo7/bitacora" xr:uid="{8C1F9F97-0EBD-433F-86E9-1771A3047CF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId6"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
 </worksheet>
 </file>
--- a/BITACORA.xlsx
+++ b/BITACORA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JP3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C1B0A3B-0FD8-42A9-9012-CFC748B4B34A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911ABFF6-F991-495C-BEF5-1065ADDD06D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB689F4F-3024-4C60-A999-50832C9E29C1}"/>
   </bookViews>
@@ -329,9 +329,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -342,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -665,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903565A-9A1F-4BE4-B062-F63E710A5C65}">
   <dimension ref="B4:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -734,20 +734,20 @@
       <c r="D9" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
@@ -776,13 +776,13 @@
       <c r="M12" s="7"/>
     </row>
     <row r="13" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22">
+      <c r="B13" s="21">
         <v>44214</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -803,7 +803,7 @@
     </row>
     <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -827,7 +827,7 @@
     </row>
     <row r="15" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B15" s="7"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -945,7 +945,7 @@
     </row>
     <row r="21" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="7"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -983,7 +983,7 @@
     </row>
     <row r="23" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D23" s="7" t="s">

--- a/BITACORA.xlsx
+++ b/BITACORA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bitacora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{911ABFF6-F991-495C-BEF5-1065ADDD06D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F7BF0E-39D4-43DB-A62F-B0932FF3238C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB689F4F-3024-4C60-A999-50832C9E29C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>BITACORA SISTEMAS</t>
   </si>
@@ -174,6 +174,24 @@
 primero base de datos 
 servidor de aplicaciones
 manfe</t>
+  </si>
+  <si>
+    <t>N4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MIGRACION DE BASE DE DATOS NEXTLAB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOMAR EN CONSIDERACION QUE SOLO DEBE HABER UN PATH PARA QUE NO EL ERROR DE 2 MEDIA FAMILIES
+PUEDE APARECER ESTE ERROR Sometimes when (for example) setting a database offline by executing the following command, an exception will be thrown, because one or more clients is connected SE DEBE EJECUTAR EL SIGUIENTE SCRIPT
+alter database nextlab
+set offline with rollback immediate
+alter database nextlab
+set online with rollback immediate
+</t>
+  </si>
+  <si>
+    <t>https://github.com/conejo7/bitacora</t>
   </si>
 </sst>
 </file>
@@ -304,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -340,6 +358,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903565A-9A1F-4BE4-B062-F63E710A5C65}">
   <dimension ref="B4:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +694,7 @@
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
     <col min="5" max="5" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="60.109375" customWidth="1"/>
+    <col min="6" max="6" width="67.33203125" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,20 +753,20 @@
       <c r="D9" s="15"/>
     </row>
     <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
@@ -1005,13 +1024,25 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+    <row r="24" spans="2:13" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="8">
+        <v>44246</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1619,8 +1650,9 @@
     <hyperlink ref="G19" r:id="rId5" display="https://github.com/conejo7/bitacora" xr:uid="{1EE8F3D9-4A66-4D83-8F7B-E2E112ABBF43}"/>
     <hyperlink ref="G21" r:id="rId6" display="https://github.com/conejo7/bitacora" xr:uid="{07747805-E213-4CCE-805C-9C972BE47D88}"/>
     <hyperlink ref="G23" r:id="rId7" display="https://github.com/conejo7/bitacora" xr:uid="{8C1F9F97-0EBD-433F-86E9-1771A3047CF8}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{02F73619-97B2-435B-B0DC-7111C165433B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
 </worksheet>
 </file>
--- a/BITACORA.xlsx
+++ b/BITACORA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bitacora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F7BF0E-39D4-43DB-A62F-B0932FF3238C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89244FFE-E438-4398-ADE9-BF69DA91141B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DB689F4F-3024-4C60-A999-50832C9E29C1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>BITACORA SISTEMAS</t>
   </si>
@@ -122,9 +122,6 @@
   </si>
   <si>
     <t>NO SE PODIAN VISUALIZAR ALGUNOS INFORMES</t>
-  </si>
-  <si>
-    <t>REINICIO DEL SERVIDOR DE APLICACIONES GLASSFISH</t>
   </si>
   <si>
     <t>INGRESAR AL SERVIDOR 4 CON TEAMVIEWER, PODEMOS ELIMINAR LOS LOGS SI ES QUE EXISTEN PREFERIBLEMENTE DE UN DIA ANTES EN EL QUE SE ENCUENTRA</t>
@@ -192,6 +189,29 @@
   </si>
   <si>
     <t>https://github.com/conejo7/bitacora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REINICIO DEL SERVIDOR DE APLICACIONES GLASSFISH
+se comprobo que solo se debe reiniciar el servidor de aplicaciones wildfly que esta el web service </t>
+  </si>
+  <si>
+    <t>N5</t>
+  </si>
+  <si>
+    <t>NO GUARDABA Y EL DE LIBERACION SE QUEDABA PENSANDO</t>
+  </si>
+  <si>
+    <t>SE REVISO LOS PROCESOS Y HABIA 200 QUE NO SE ELIMINABAN, SE LES ELIMINO 
+Y YA FUNCIONABA CORRECTAMENTE</t>
+  </si>
+  <si>
+    <t>N6</t>
+  </si>
+  <si>
+    <t>NO VISUALIZABA NADA, COMO SI ESTUVIERA en estado de hibernación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE LE APAGO Y SE REINICIO PORQUE NO RESPONDIA </t>
   </si>
 </sst>
 </file>
@@ -682,23 +702,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1903565A-9A1F-4BE4-B062-F63E710A5C65}">
-  <dimension ref="B4:M66"/>
+  <dimension ref="A4:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="5" max="5" width="61.109375" customWidth="1"/>
     <col min="6" max="6" width="67.33203125" customWidth="1"/>
     <col min="7" max="7" width="46.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -707,7 +727,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>20</v>
       </c>
@@ -716,7 +736,7 @@
       </c>
       <c r="D5" s="3"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -725,7 +745,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -734,7 +754,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>25</v>
       </c>
@@ -743,16 +763,16 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="15"/>
     </row>
-    <row r="11" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="24" t="s">
         <v>0</v>
       </c>
@@ -768,7 +788,7 @@
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
     </row>
-    <row r="12" spans="2:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="B12" s="6" t="s">
         <v>1</v>
       </c>
@@ -794,24 +814,27 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21">
-        <v>44214</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>12</v>
+    <row r="13" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="8">
+        <v>44177</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -820,22 +843,27 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
+    <row r="14" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="21">
+        <v>44214</v>
+      </c>
       <c r="C14" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>11</v>
+      <c r="D14" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -844,19 +872,24 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="2:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="7"/>
+    <row r="15" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8">
+        <v>44214</v>
+      </c>
       <c r="C15" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>42</v>
+        <v>15</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>18</v>
@@ -868,13 +901,28 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+    <row r="16" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="8">
+        <v>44214</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
@@ -882,24 +930,27 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>5</v>
+      </c>
       <c r="B17" s="8">
         <v>44214</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>20</v>
+      <c r="C17" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -908,13 +959,28 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+    <row r="18" spans="1:13" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" s="8">
+        <v>44214</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -922,21 +988,24 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>7</v>
+      </c>
       <c r="B19" s="8">
         <v>44214</v>
       </c>
       <c r="C19" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="E19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="G19" s="13" t="s">
         <v>18</v>
@@ -948,13 +1017,28 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
+    <row r="20" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="8">
+        <v>44222</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
@@ -962,22 +1046,27 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="18" t="s">
-        <v>36</v>
+    <row r="21" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="8">
+        <v>44225</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -986,13 +1075,16 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="20"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1000,22 +1092,27 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="2:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="7"/>
-      <c r="C23" s="19" t="s">
-        <v>23</v>
+    <row r="23" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" s="8">
+        <v>44201</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>43</v>
+        <v>15</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1024,24 +1121,27 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="2:13" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>14</v>
+      </c>
       <c r="B24" s="8">
-        <v>44246</v>
-      </c>
-      <c r="C24" s="23" t="s">
+        <v>44202</v>
+      </c>
+      <c r="C24" s="20" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1050,13 +1150,28 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+    <row r="25" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="8">
+        <v>44204</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -1064,13 +1179,28 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
+    <row r="26" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>16</v>
+      </c>
+      <c r="B26" s="8">
+        <v>44206</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -1078,13 +1208,28 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
+    <row r="27" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>17</v>
+      </c>
+      <c r="B27" s="8">
+        <v>44210</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -1092,13 +1237,28 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+    <row r="28" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" s="8">
+        <v>44211</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -1106,13 +1266,28 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+    <row r="29" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>19</v>
+      </c>
+      <c r="B29" s="8">
+        <v>44245</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -1120,13 +1295,28 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+    <row r="30" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8">
+        <v>44246</v>
+      </c>
+      <c r="C30" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -1134,13 +1324,25 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+    <row r="31" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="8">
+        <v>44249</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -1148,12 +1350,22 @@
       <c r="L31" s="7"/>
       <c r="M31" s="7"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="8">
+        <v>44258</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1638,21 +1850,114 @@
       <c r="L66" s="7"/>
       <c r="M66" s="7"/>
     </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B11:M11"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G13" r:id="rId1" display="https://github.com/conejo7/bitacora.git" xr:uid="{E66C1F00-79BD-43C3-8C3E-BBBD82F2DF1F}"/>
-    <hyperlink ref="G14" r:id="rId2" display="https://github.com/conejo7/bitacora" xr:uid="{C6478953-FC6B-4492-82D3-FC7AF9C5AF7B}"/>
-    <hyperlink ref="G15" r:id="rId3" display="https://github.com/conejo7/bitacora" xr:uid="{35684D8C-5BA0-41BF-A28D-2F8C057848BA}"/>
-    <hyperlink ref="G17" r:id="rId4" display="https://github.com/conejo7/bitacora" xr:uid="{E759EC94-8FC5-42E9-9644-41AB6A7A5185}"/>
+    <hyperlink ref="G14" r:id="rId1" display="https://github.com/conejo7/bitacora.git" xr:uid="{E66C1F00-79BD-43C3-8C3E-BBBD82F2DF1F}"/>
+    <hyperlink ref="G15" r:id="rId2" display="https://github.com/conejo7/bitacora" xr:uid="{C6478953-FC6B-4492-82D3-FC7AF9C5AF7B}"/>
+    <hyperlink ref="G16" r:id="rId3" display="https://github.com/conejo7/bitacora" xr:uid="{35684D8C-5BA0-41BF-A28D-2F8C057848BA}"/>
+    <hyperlink ref="G18" r:id="rId4" display="https://github.com/conejo7/bitacora" xr:uid="{E759EC94-8FC5-42E9-9644-41AB6A7A5185}"/>
     <hyperlink ref="G19" r:id="rId5" display="https://github.com/conejo7/bitacora" xr:uid="{1EE8F3D9-4A66-4D83-8F7B-E2E112ABBF43}"/>
-    <hyperlink ref="G21" r:id="rId6" display="https://github.com/conejo7/bitacora" xr:uid="{07747805-E213-4CCE-805C-9C972BE47D88}"/>
-    <hyperlink ref="G23" r:id="rId7" display="https://github.com/conejo7/bitacora" xr:uid="{8C1F9F97-0EBD-433F-86E9-1771A3047CF8}"/>
-    <hyperlink ref="G24" r:id="rId8" xr:uid="{02F73619-97B2-435B-B0DC-7111C165433B}"/>
+    <hyperlink ref="G17" r:id="rId6" display="https://github.com/conejo7/bitacora" xr:uid="{07747805-E213-4CCE-805C-9C972BE47D88}"/>
+    <hyperlink ref="G13" r:id="rId7" display="https://github.com/conejo7/bitacora" xr:uid="{8C1F9F97-0EBD-433F-86E9-1771A3047CF8}"/>
+    <hyperlink ref="G30" r:id="rId8" xr:uid="{02F73619-97B2-435B-B0DC-7111C165433B}"/>
+    <hyperlink ref="G29" r:id="rId9" display="https://github.com/conejo7/bitacora" xr:uid="{C9499137-9165-4C0D-9765-7EE0C9803B1E}"/>
+    <hyperlink ref="G28" r:id="rId10" display="https://github.com/conejo7/bitacora" xr:uid="{99F79797-8BC4-486F-A508-31942794FCEA}"/>
+    <hyperlink ref="G25" r:id="rId11" display="https://github.com/conejo7/bitacora" xr:uid="{D8B77E70-9DE2-4BD5-B120-3F5B17726BC6}"/>
+    <hyperlink ref="G26" r:id="rId12" display="https://github.com/conejo7/bitacora" xr:uid="{A332290E-3E26-4122-AE01-26320D9DE2EA}"/>
+    <hyperlink ref="G27" r:id="rId13" display="https://github.com/conejo7/bitacora" xr:uid="{2C3AF4AC-7CBC-49E5-A6F4-4C60022DC0D2}"/>
+    <hyperlink ref="G24" r:id="rId14" display="https://github.com/conejo7/bitacora" xr:uid="{5A399172-3BF8-4F83-A144-E9387FB5E3A2}"/>
+    <hyperlink ref="G21" r:id="rId15" display="https://github.com/conejo7/bitacora" xr:uid="{0C40215B-B451-4114-B910-5F5F3C2E7255}"/>
+    <hyperlink ref="G20" r:id="rId16" display="https://github.com/conejo7/bitacora" xr:uid="{7E91F7DD-F3D4-4AF4-AA9A-336E52A346D5}"/>
+    <hyperlink ref="G23" r:id="rId17" display="https://github.com/conejo7/bitacora" xr:uid="{9D5EDF45-8512-4727-B982-ECD724625477}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId18"/>
 </worksheet>
 </file>